--- a/PDFS/Siva's_Excel.xlsx
+++ b/PDFS/Siva's_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS_Code\PDFS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2C9E7E-FD95-4AAD-8203-00F1EEB3425C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50E9371-68DD-4CB4-A4DC-94EB765B6C39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{A3199315-868E-47EE-BBB7-2AECDC078645}"/>
   </bookViews>
